--- a/data/regression_name_list802.xlsx
+++ b/data/regression_name_list802.xlsx
@@ -1507,7 +1507,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
